--- a/rss_data.xlsx
+++ b/rss_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,765 +453,1683 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Office of Science and Technology Policy - The White House</t>
+          <t>Markets for forest products respond to technology, says report - Phys.org</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiR0FVX3lxTE9IcmY5SmdiaTRjTUpaOGl1TDRMcFZKTXVSZjBfVzVQNmRLM2ZEUmFHSlVLbDdMMWJBY3JNSVJkd2oyTFFGVklR?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibkFVX3lxTFBHbkNKR0t4Ui05SHJHX3lqRnc0VndhaGo0RE1NdTY4MUtrNjh1Q2RKdDRaVTVMcE1ZRmZiZ08wTmJUTHc1WS1Jd1dQdkl4MERkLWM2cUpqajY5RU9XZHZKSVBSMG01cmtsWklKQnNR0gFsQVVfeXFMT0tMQzR3OVlBZXN5RU1HaVk1NGJ5SU9BOXB5eGxJMGcxOWNIY2l4V2NORHE2dGlZU1VXT1lXNEF6VkkxOUpKREZvS1NqaXNjNjZGRlZjZVRyTkhiVHpDV0RvZ1N6RzZpVl9sazBh?oc=5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sun, 25 Dec 2016 07:53:36 GMT</t>
+          <t>Thu, 14 Nov 2024 21:00:01 GMT</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>North Korea’s Science and Technology Journals - 38 North</t>
+          <t>Pentagon says there's ‘no verifiable evidence’ of extraterrestrial technology, beings or activity - Fox News</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMigwFBVV95cUxNeXlzSkxTNlZVeFQ3RUFRY0VLd3RGUENwZ3ltYVVJZEVYQXFKSXhEbHRUYmpkRHZRSzdDbFluSXBpUnl3VkhTWnhjY0FiaTZMZW5DM2hoUUJkWkNHY1FrV1hTZEgwOGVoZUFLN19aanI2VDVTQmJkRk95bGNqYmlHYkxRSQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxNTE42NXFET01DY1ZZUVhyVmtXMFNISXhGTmhPNHBiUTFFNE9sZUl3NE1vTjVuTG1ZTUxNSTljd0tGR2ZUaVhYa0lBcTNoWVJKQTRQQTNla1h5RjAzdDVvLW9VckE1cnBUUUxWWE0xUEdkMHhYdGp1dWFOY3dRR0VVZjlnYm9wUWR4UHBmUThraDh1MFpwaVpfRzVKZ0ctUW1GanlFR21NLTFYMG_SAbABQVVfeXFMTzU2dVRIUWJlbmxGaVZ6UlhpVHRxUHpBS3UtNGgxYm5OMGJLbmd1T3NjSVFIMVdWTG8walpRWWNQR213OUtHVHE3T2pHNjdKWXgxcnNPNVlWd0hXSkpBX05LeFQtZmRGa3dkZGt0R3B6dzRkUDB3VVhVNDEtNXNpaktKeHJuZ2tJVEpHdmRwM1IyTEU0MkJ2QmdyQVBSTzFhV0Z0ZUVpYnpWTFdvTWloVWw?oc=5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fri, 07 Apr 2023 07:00:00 GMT</t>
+          <t>Fri, 15 Nov 2024 01:06:00 GMT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Interaction of Microplastics with Antibiotics in Aquatic Environment: Distribution, Adsorption, and Toxicity - ACS Publications</t>
+          <t>Garmin G3000 with Autoland Technology Gets an Upgrade - Avionics International</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYkFVX3lxTE5yRXZGTTh2c1B0X19fUjhJZjVYMl9nRHpmdWFqcm5iUXFJMkJ2LVVieUw5YmVuYktfN1llSVhTVnY0cFZLcmNFX2FBQ3pscEotejl1RTFGVDlHQ01DeXhlaGlR?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMimwFBVV95cUxNYnFCWWZrSWIxNXNYMy10MjRxOFd6VkRWalJqcXhROEdZWmNJVktIc05qUnB6TGpacmhMT0Fyc3RlV3dZeE5OTklLN29haHZyR2tkMmIwV203MFd3ZjcyTVNHUW5DdUhmN2RMNFlPZExIdFdGZGtQU09WSE9SdURGRG5zMk9Tc3c4U0ItSFB2OWVqSk4yVnh6RU5DZw?oc=5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mon, 08 Nov 2021 08:00:00 GMT</t>
+          <t>Thu, 14 Nov 2024 22:16:41 GMT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>한형섭 (한국과학기술연구원) - 생물학연구정보센터(BRIC)</t>
+          <t>Former Military Officials Tell Congress America Has Secretly Recovered Alien Technology - Futurism</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMi_AFBVV95cUxNN1hHY1pWNUtJRkh1SWZhVWtHVGxEaHBNVVUwWE1ITnVCZFpld0tCY0VmLWlhSEk0RHFxLWdEZXdMR1NHX1ZoN1VsdmpuSmQtZEwtRjNYTF9TajJ0a20yUjM1LTY4NTdjTnk0U2kxeXNpaEtNWlJaSUZjUHQ2N0Y2aE0tVWh2cDIxVUc0b3hpMXJmZ1pabzhLR0l6eTRGSFliY0owV0t0YjZhV2tlX1ZtV2hwZXlTa2lCMENlRl9KYzA3eTR6aDdwWGlQZnF5c0kwMWdtNkhnVDJmdTl1RmtsaGQ3dzNlQTlORGRpRzZjeDJNSWZxeXlyVWZXcTU?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxOSlFPRE4wLU1BWTVJR3luWnJnRkJ2a09MLVc3ZVdwNVBtZXp0RDdsekFlSDR2QnFsMVdjSmZUQjljRmtHRFhoZ2hrd3F4alVKOXNFVURReVVwUlR5aVYwSnpVUnkwNHc4SjEzSi1SWWdSclQwNVN1MUNwallUbkU4WVRVT0lQZm9B?oc=5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mon, 23 Sep 2024 07:00:00 GMT</t>
+          <t>Fri, 15 Nov 2024 00:30:44 GMT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>What researchers can expect from China's top-level political meetings - Nature.com</t>
+          <t>Gartner’s 2025 Strategic Technology Trends Are Just Right - Forbes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiX0FVX3lxTE9yc1RDb1VIMVBKWXNQNGVPYWYtWVB2aFFFX3p1aW5kSC1CLW5Bbk5DaU5tR2VueUdhOHpxZ2ZQN29vSFZmWlBOX05WWjA1dXE0Z1E1NFJzOTVGMnEtVGNv?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxNX3N0VmpHQzRhdDFPTFVERHhyc2pabmxGZEFKUGFCc2FTN3R5aWVVbTJPMWRnc1NlN2prVDZlY2FsR0txd3EzSzFBMDBDNG1YNDJRalNzUFZHTEVBbVk1aUwyV09WTDhxZ0l4QXVqR25fMndSWU5mRk43RjljaFhFN0dEbnp4Yy16ZkxyUG1waWFzTFh1TUpOOGNQOUhld0NFQ3hUcGRHb044MW8?oc=5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wed, 07 Mar 2018 08:00:00 GMT</t>
+          <t>Thu, 14 Nov 2024 17:47:36 GMT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>How Does Iowa State University of Science and Technology Rank Among America's Best Colleges? - U.S. News &amp; World Report</t>
+          <t>State Science and Technology Fair of Iowa Introduces Junior Division for Young Innovators - Morning Ag Clips -</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTE5HNzVkRTBqdnViSjM1R2hvUENtbmc2MFVzYTNvSEw5ajNZVmdrTzFfWTB6LVRuYXZmWUcxLXhuNzlkbmhRQXMwN1Zza3hieTRkSnVjN0g5UGFXcUc2M29nYmdDSU0zVXBzbGZhVGdtMEw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxPd3k0X3VGN0ZFQU5tUGFSeFB1V2ZJR0piNEtqWkVPd0pTSW1OOE1DdDlqRTBWNG9NZUxzTlQ0REVDN2VKbVBxSmlhaVdTODAxRzZJSzZLc0VmdGVLR3ZmX2F5MGhsVGhuZXZWUDU2blVwSENIUFNPYVFFVmZ2SjF4OUJYV3hWM3BXUm5mRjZmMVFvVDlwNUVEbXFNZjJ4cC1LV2VtTHVjbWc4WnBLazVkdk9Ca1pYUUpFSlMxbjJR?oc=5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Thu, 23 Feb 2017 04:31:28 GMT</t>
+          <t>Thu, 14 Nov 2024 22:03:48 GMT</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>New North Korean intranet portal boasts job recruitment service for businesses - NK News</t>
+          <t>Thermochemical technology shows promising path for heating indoor spaces - Tech Xplore</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxQMDRlaHoxMldXUEgtampyTjU5ZGRWVUFnejN4Wmp2OEVEdFpLX1V3eUhxWmN2aTMyd2xUdExKRWd5WTZ2WGVYUkQxOGVZc1FlOUdGWmF2eDJTSXNtNzZ0QzRWUGJrbWQ1US0yS1hhLWNtRDVUQ3dqdEVYR002dHdHa2RtRmhuRHM5dldYWFd2MmVvQThleUYwdUl3NTd3cC1Xcm1FNGZDdmdnZ1EzVTZJ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxOQzVwQmVpZ19XaGtwRkMxdmVHdGFGbE1zWEtZelRESkpGRDlBTjhlMVVsQ3pQbXgyMjJVTzBXN3lvc3liczdLdnJpY0YxSFRKWjdYemtTQzVPTE5hYXZBVzB6V0JpejZmOEhTWHFkdzl0NXIyT0FmUUhGRWNOZ0t5RG56S3RhUkFMT0s0QktR0gGMAUFVX3lxTFBHRzdjcnFBSXI2VmhHQWRoWWstcDhoOHhMdmNKSHJzUWEzTkFXZUJ5eWhqeUVXSDh3ZVRQQWRZbkpXOXlOWi11YnU2REhFbnVXMjZLOFJKcTU2LVVPOHU2UWV3NVJNYUdHc0pCRkFOUU1DazFKZTVHbGkxQzVsOXltWWNlMllwQTM5Znc2?oc=5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tue, 10 Dec 2019 08:00:00 GMT</t>
+          <t>Thu, 14 Nov 2024 21:39:04 GMT</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10 New Innovations That Could Change the World - Brookings Institution</t>
+          <t>Free lecture series on technology in media - KRQE News 13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiigFBVV95cUxQS19XMUs1clhSaFZGdXJ6NkREQ2l5b0czWjNKOVFpdGtKMlQzaUpNOS1rUGJaNWxySnNyY0lOSTE2VTZ3dG81S2x2OV9ndEZUUmtSX2Q2NFMwNF9vOWVJQnBJZHU1NVB4THVjeUhLaFhFT3VZQlYzdVN6Y01xRkFXWE1waDQ0MmpBX2c?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMihwFBVV95cUxPRUhBWXl0TkkySjkwTElRcVRhbnNpa0RFLVhTWmRGRTN0YVhhSTM3a1MyZnpiTEU3MzdSc1FqSW5WOE9Ba2hLWU1OSlVqZ0xKNEtETk1Yc3B1enpEQjYxRnRoQjJRMkJyMmNESm5hWU9Dd0hQZlJhWktWQ3dxekwyalpWdFNVVlnSAYwBQVVfeXFMUE1zSktOTm9pQzY3Y19QdnVrczhpRHBMVUd1bGRQTHhQRTVRNVY5WFFxRHMxWTlpZUQtZTRDOWhWNkh1VFNtQVhpSTBLVFV3Z1YyQk9Lb0NVZXBUeFZ4a1FRM2czc1ZSVU1qRDFnV0c3bERJSmtVWUFrNWlHVzVfbXBKdk5wRXBOeUNHOGs?oc=5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tue, 10 Jun 2014 07:00:00 GMT</t>
+          <t>Thu, 14 Nov 2024 19:00:09 GMT</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>The real scandal behind billionaire Eric Schmidt paying for Biden’s science office - Vox.com</t>
+          <t>5 BIM and Design Technology Specialist roles currently available in New York City - Archinect</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxOUS05ZVBGNnp2T2IxUHpVWHlVQ1p1Zk1XdG8ydEhXY1ZUVElFTmVmUlJnbk1vdU9TSlVnSzhTR01oanEwUmhYOGNLVm1Fb21jMGk3Sjk2VDRKSnlib1Z6SWg0dzIxTXhhc3BSTGNRMFA3dThYc0lkU1Y0LXJHZE1JN1hoQlJMcnZvTlpyU045X1QtTmI5T3dPMG94Sk1UdC1BSjZyX0p4VzZvc04yN0h3WWVPdW9GbHh1cDF1MU5xc2o?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxQcktRZEJEVXZGQzBtRzEyZlY4RURxUVgxUXR2QTFEdVBINnUyVFBWdGZZckN6NmFzTWxEdnlQY08yenNQZi14UnQ2VlQ2aTJUcTI1YjlaRWdKXzJ3YkFyVVhfeVI0WUt3NUVfdEk5NFdtSVNLb0ZFX3lFS080bW9BU1gzSHJsTGVRVWNDU0pleUhnd05UOEc3SkpOODkxOHVjZjRGamMtQTE0RGt6VDVmNHN3RDlXYk1fcUdIc2RYUFhnVmV6?oc=5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Wed, 30 Mar 2022 07:00:00 GMT</t>
+          <t>Thu, 14 Nov 2024 17:49:00 GMT</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Success of Nuri rocket's 3rd launch hailed by President Yoon - 코리아넷</t>
+          <t>Science and technology stories in the age of Trump - MIT Technology Review</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE9qRTM0Q21GUEpUS2c3ckdGQlllOHVzVlVGU25DQjFUSWlUcThrWGxBV3JfZW02dUdUckM1NWtNSmdueDBjQ2RONVRIMWxLNnktRkE0Y1NBS2dXZGpvT3NkV2oxOERmNmM5ZDh4elk1cw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQM1BLWHJhdC1tQW9TeVQ2eWNzWXVHaUZnanpqTnJDQlR5ZDdlSTFmMkNjTVNhamhOaS1JQjlwdUZacFhqaHlPZDFGUjFqNGxjaktkTXpaWXBTWWRiTzdTXzl5M0FFVFlock1KWmJsdzR6LUZKcm9pRXIxQzVfTnNJdXp4TkhNVlBGQXpZaWg1RnVOR3dVS1ZZQjllSldYd2p2N1g0Q3ZB0gGrAUFVX3lxTE1oeXI5NDd3SjF0RmxfOU81RnhJMVJGMFhrSGZUa2JRaHZ1NXpKR21TMEZaRjZheXFwclNKSzg0QkYyMTdwZHJicEx4ZkdhV3lRcjIyNnp6b1Z1VXJRaklJblVVVDJVZnJ5dERqX21Ha1FnWHFGUkVPZHl1TzZPbks2UFRxZjJtR0NkQmZFQWMyYkxTTThManFlMjAtMWY0RXU1T2RRcGdPWW95TQ?oc=5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fri, 26 May 2023 07:00:00 GMT</t>
+          <t>Mon, 11 Nov 2024 11:25:26 GMT</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DPRK S&amp;T Journals - 38 North</t>
+          <t>Social psychologist Jonathan Haidt on how technology is reshaping society - CBS News</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMid0FVX3lxTFB5ejBlU0tRdXdlMGVCUWFWYmJHbWpEZXVvN3FZWFktTS13bFdQZldHQm5oUWw0VnotZm10YS1iNTdGaVdfSUNnV1pWakdibGR0TEpwSElPOEUtbVQtQ3lNbEpsNzJxZ1VqeHd5NzlJdWtWVkQ0NE4w?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxPc1B6aWZVQm42d3lhWk50S1VWZkVyRk9GLWdkOVMtakhFcVFDQ0pMbjlsVlh1T0dhS0N1Z2FaalNXUDQ1eDlYV2ZwTlNveXBWUU80MWtpa05xMnQ3ajlfWmVoaDh3SXBqVUZ5anRJb1QxWTJGZnVXM2RJWk9RMnN1ZmhxUHp0OEFNUXUxQzN5aDc1ZXJnc29uVTNlLUFrUmdlbWpOcWd5WQ?oc=5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fri, 17 Mar 2023 07:00:00 GMT</t>
+          <t>Thu, 14 Nov 2024 14:11:00 GMT</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Initial £100 million for expert taskforce to help UK build and adopt next generation of safe AI - GOV.UK</t>
+          <t>Nashville using new technology to improve recycling - WSMV 4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxQRENjUV9EQnZjQ1dvSnQyYnFIZmc0V29qUkNxQzJQMktmRmpJckE3LTFBZjBHWDJfSEdRRV9wanpaRVJmZ2d0d190dE52RUh5R01qSm1POEFnRDVWXzFGd3hHbDFKX0NwMV9ZeXd5UldHNFVURmx4amJ3MXc4VUgwTTZRNVhjTDloeUVkS1NWbFBKamFReXBwRjVMSm9jNVRxb1gtem1JLUU4Z1lpV2ZNbVAtU0IxUHZLNmo3SFV1ZXN3M0tkbF85QQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxPeDNrb3VtMjVCYVhSZkNsVWtUcHVYekVDckFaUE5jSjZtZkgxR000ZXNaNmNxQTl1OXM0cTRzb1pjSWJjSnZZWk9ITmpGc2pGVG42SmN6WS0waUdjcFpmNkhUWnFBSjg1Rzk4dnVkV2d5TjdGX0hKWWthTVhINmlkQ2ZyVmNVZ3R3?oc=5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mon, 24 Apr 2023 07:00:00 GMT</t>
+          <t>Thu, 14 Nov 2024 00:06:00 GMT</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Philippines president Rodrigo Duterte says he will quit if someone can prove God exists - The Independent</t>
+          <t>Multi-agency effort tracks coho salmon with radio technology - Alaska Public Media News</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxOT25laklPZk5KQWM3ZjhxVFNBbVdDWUdtSWZDNnJzcFRiTjVzMFNadHIzck9oT25XbmZnNzdROWRlODBsSTVaTUlHc1NhWlZfTFRKVnlNck5oaDZoekk5TjFObF92MFpwUUc4cFhTa1Qwb3ZoMzZPTWM0RXgwaWkzWWRsQzVhdHZZRVRfdkRkbVRmeEktRlJsa3k3VS1ZUGNkNTMwbDZqMEZaTDJwajFNenl1elp6R1pmbGJBWngwZUFZUnlLX2dYaC04Z0RYendCWlpUWWpoVzZqUUtBVmU0?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMingFBVV95cUxNdW5Md1E0YTVLclJzNDZ4cmR5Vi10MVBQbUFjbUZNLS1NX1gyZGdWbEx2bm85Ui1UQzNmLUN6WG9TZ2VNcUM5VXg5U3MwQlV5alljUzMxZ1ZPWDJ2by14ckJIQkR2ZEVIc0Itdmh6S3BaQ0pxcWlYYkZ6S05JTm13RTBidXlIQkZHd3ZOdEphRXh1MVQ0M2ZwbHQtNGpiQQ?oc=5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sun, 08 Jul 2018 07:00:00 GMT</t>
+          <t>Wed, 13 Nov 2024 17:51:45 GMT</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>North Korea's Kim Il Sung University conducts research to collect and store rainwater from building roofs and use it - NK경제</t>
+          <t>Storage technology explained: What is S3 and what is it good for? - ComputerWeekly.com</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiakFVX3lxTE1HMXlLRmR3S0tXWnR4eVd5TTJDYWtmMDB5SmxCNkI4T1pxc2p3UzZ0RS1DZExYLVhpUmU3Q2JUWUdfS2VCYUUyUmNaR3hzRW9nbkYyOS1JcU5hUE9rUDFFZERTR0l2TGJYOXfSAW5BVV95cUxPQnNZR1Nlbmo5VGszbzR2c3piQThaaWNTMjAwRUZEZEF3REg1STBFNkJqazB3S0p3NWlDMi1RTFZncVNqM0U3OGxzZTFsYVdNSGJOUDJlNWFGdHhFU2Mzd1ZrMHpwNTJsRURLclhzdw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxQM0EtZlNCVjlxV25tV05vaTEwRWJNX051eUJEd0xfSnJVQjlfM29tbVhfR2hZVzZKWmZaaDUyMlQ1andpT05NZlE1QTJ2N1lYREhZZUdjTkdSOGdQLWpyajkxcU90djZsQzdVWDhjOGkxNlhZWkpKUnJFaE1PaWgwanhXSVlqaGRuQzdWYk5yUTlrek52bGV3WE15bTVmX1ZuZmhMMw?oc=5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Wed, 18 Sep 2024 07:00:00 GMT</t>
+          <t>Thu, 14 Nov 2024 11:25:51 GMT</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dstl to develop conceptual unmanned aircraft for RAF - GOV.UK</t>
+          <t>Pentagon Reverse Engineered Non-Human Technology For Decades: Whistleblower - Jalopnik</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMikAFBVV95cUxOT3FBOHAzbV9SWnpTLUYwandEbXFULUhqN05DSVpwWGtVeDdnWGVwOW1DTnduRnJRV0hwTTRsLTJDcDhGdEkxdzBHSDdIM053TXVKazZIZmc2ZVFDTlh2MVd6ZmFuZVVnRWl5NC1pZ2l1ZWxKR2Q0cGZja0tPQ21OQUo5a2lrUmdLQ2JhSlVOZm4?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMikAFBVV95cUxPOEVIQUgtd2p4LWYwVnRqUWJ4V19SLWtqd0pYdl9fRkV5dlhzc1duTlZLZzhNdHl0RXJrNHdCQTQxTHRJQUo2TTI1SXRFbTZKWWpHTG9rczFad1FxdkU2d1NxSlgtYUx6dDdsUXV2TzN3d2ZIM1o0WHVyWlFldWpCcUZ6UEtDbTFKa2s3a08xTDU?oc=5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mon, 22 Jul 2019 07:00:00 GMT</t>
+          <t>Thu, 14 Nov 2024 17:30:00 GMT</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>North Korea says satellite imagery has a wide range of applications - NK경제</t>
+          <t>AEP Launches Massive 1GW Fuel Cell Initiative, Projects 20% Load Growth | AEP Stock News - StockTitan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiakFVX3lxTE1PXzFCeEdxUEJXTkl3SVV3YzdHX1VLdktUekgwRGc2dkR1dVEzQk8yTVVMYXNnTVE4YWxWUVNabFdUWmI3eEx0T2o2TlNQV09WSzlqX3dNZXdOdkRNMDhpODNhaldkTzNKWmfSAW5BVV95cUxPQTVWWHdEeXNfTXV3TTJQS3BOR3E0T0lsVGhMVDNSc0lBd1JDOG0yelgzRm5aYThZdXYtUU11SGNzS1Q3aElPMjJqdlpYdzZtRHhXMDRpMmNadWdjQlNHUmItNlhpTXZzaTRMU3FTdw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxOVVREQ09GZk5aS19fZmVXem9BRHJGb2JOX3ZkS1Y2X0RqNHpSTHp1TXJsWk1PTDZWNjc2VG00Sm16UjlwQWVaa1VEcFU5VWlFbnBmelUzYUY4SFk2VnM3UDQ1UXdVMWFBYUNkaDh5c3czRE5RaXpPdkVrZEN4REdoWUkyeW54eVZmTmJMZHhxeDRrYm5GWWtZUEpXeFhUWDM1WHNYRTNlejdwZXNsQjN3?oc=5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sat, 20 Jul 2024 07:00:00 GMT</t>
+          <t>Thu, 14 Nov 2024 16:58:00 GMT</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UK and France to deepen research and AI links following Horizon association - GOV.UK</t>
+          <t>UK IT and security teams face mounting pressure from legacy technology - The Keyword</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxPYkM0djFzQ2lxd0lza1JscWw2SC11VVJySTNyVUJ6cS1wdzVWVmtyVlBEb3YxNGFvWTRwaG8xZk9LWTlTUmNWMkd3MlhYUzREakhMV2JPN3ltUjJDM2Fnd3VJT25STkhITlhzbDhVOHhzdXBPSUg2RU9ZTFo4V1JUbGZHQWVSR1NmWDlqc184N2ZYVXdDMzJPMWYwODB5bGR4Nm9WV1k3enVNOXNrNnpR?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxNRE9OVHM2V0xNanY4cHVCSGs1cXNqYkx3NHpfaXJYYWh1VHgxRTNMU2JYSEUwWGs5YmItbHhFWDlJNnlJT2U5V1hEOGw2Z0hRWHo1YmVOU2RjUDYxMGhIRzVUajdYbVFYY0tLUEdBY3gyaHFUY3lDdnJXSGNwTnF0M0lzUnNpcG8wYUpmdHk4TzViekhsQ3p3eEIzSmgwQ1B6SkZ5S0xzTl9xanRRMVNnSHQtWWRKVTYzZktDTUxicGIxeFprUUdPTW5wNy1YelQ5OFE0?oc=5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Thu, 29 Feb 2024 08:00:00 GMT</t>
+          <t>Wed, 13 Nov 2024 16:45:05 GMT</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>North Korea to Build Clouds at Kim Il Sung University, Kim Chaek Institute of Technology, and Actively Utilize AI - NK경제</t>
+          <t>Radio Wave Technology Gives Robots ‘All-Weather Vision’ - Unite.AI</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiakFVX3lxTFBsR2dPOXdZRFJyaHRYeW1LTW9oYmM3Vll6N3RIM3hJSS0yS1dGemFBbkZRV2dwd3FmVE9sWDI4Qjg2MUowNXItNHN6U3YxZ3dsV1BTdGZ2ODJTREU1dkctenNQZm5rUmQ4VEHSAW5BVV95cUxQTlg4ZE5LcUJaUzBRTmllNFA4dVJyVS1rOC1pbkRSQXZ0alN2OUNoVWVJLUVwU095VW9ObkVFNnE0cEhsbXZxODNXcFlVQ2Y0X1pEY3l6ZGsxeFgzQkNXa2dwa1kwcXlHRnUyRXhtUQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMigAFBVV95cUxOU3h1Z3FGOXB3QUNLOTFXcS1iQXJ5OUFBdGplZXpwZlJQVG9qTnpNT2x2aWtnWHI1aUx2MERQUGpIQVA0bzVIUWtPVlFVTFlGdnNjYU1qVUN2TmhyZllWVW5tdTJaZHd6aFBNMjNQRV9BMXVnYmQ4N2kwTDVEV2Z3bg?oc=5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tue, 01 Oct 2024 07:00:00 GMT</t>
+          <t>Fri, 15 Nov 2024 01:35:34 GMT</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>North Korea's Kim Il Sung University "Information Technology Institute is the center of North Korea's AI research and development" - NK경제</t>
+          <t>The 10 Most Important Banking And Financial Technology Trends That Will Shape 2025 - Forbes</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiakFVX3lxTE8yeGxsSDdZQTlBT1NGOEl5aTJ5a0VWY0Nkel9wMTRLVXJaS2dFRm1SOWJya0VLNnFEckMxdVVsSmxSUWZ2b2paOU1fMG1LZG5PRDVCVm9lMzZkbzAwUnp0dnVEV1BDWVJSSmc?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxQNnhRaXVnNERuS1FhU1c1WEFoZVlFZlBaa2xlTVJPanY3cTh5c0RvX1ZndnpseWMtNHdydnlnbEN5UVRQVU5ad3ZBUGcwNHVYNnBxN0dPQXBOa1JlT3I1Z0ZYWEg5a2tiaU4tSWFQejA5ODBmQkNQU05JUHQ4Sjk0WDZuTFRJcGdxSzNURmhjVkRTNFZwenR6OENWaGI0M29HdHBtcUJ0a0MtcFlXd0FQUEZpM0RCNWd2Z1JzZVJrWW0xVXJpVFVBQ3BueGpxdUsz?oc=5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tue, 21 May 2024 07:00:00 GMT</t>
+          <t>Wed, 13 Nov 2024 07:04:47 GMT</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MSIT of Korea Restructures World Online ICT Show Platform - 뉴스와이어</t>
+          <t>Elon Musk, X &amp; Technology Platforms For Other Purposes - Forbes</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTE1fY1JfNWRqR0I5S28tV0ZDVXRWV0JQclZYS2YxU3ZtMExiTnFsV1U2N2F2NU00NzBKSW96Ml8xQi1xbFJXOFlQd0ZJa1lscHU5MXJWUTJEcHBkdHp4aWc?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxOMGxMeUR1UGw1aEdHcnpYaG1pNzJobFEtRUxLWGJ4NDBHWkhqR2hwYjd2b0JFc2w5dDBacDJKMXZKUDlURmZJMTViTUs4Uktlajk4eElud2ZLQ2xneEFoZXQ3Rk43Tmd1R1RRMVdabjR5ajV3dkJ0RUVTMlZzU3dhbjhqM3pEXzRHdm9XSmdoUG44NGFNTW81LXRkQXFVdGZNdk0yNVBFWHVyVzg?oc=5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fri, 12 Nov 2021 08:00:00 GMT</t>
+          <t>Thu, 14 Nov 2024 01:42:00 GMT</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>influencing pit latrine emptying and feacal sludge - ResearchGate</t>
+          <t>US concerned by Russia-North Korea ties and technology exchanges - Reuters</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMi2wJBVV95cUxOMFhLWVFIWVRIOGlrTjNDRnVHLVZLREg2V2ZPMndNUmcxM1padW85ZlhUbndGTkxXcXhYVjhRV0pISUFpZTFmU0EzVUl6YlFVODN0a1U2QXFYRU0yU1d0dWVmU1otcFZ6VTRGSE4wUGNjSVRRckNxcmt3NWllRGV4STlzNHpsejlaZlU1blNEamVIVnB4R0VGYUlhcUZreFRfdnRJdmdCUGdWOGxtYXYtSHhidWYwcHhmYVdobjhGNWVhcW1HX3hDeG1OektNQ1Z3ZkJWT2N6dzV5dVJSMC1MR3NEQWsyWThKYmpmSUxrTVItRnVyXy1tcFBKcUVMZmRCMnptNlRrdk9ISWMxRWlLTHV4RVg4V3NoaVRkVmg3cTBQOHNJckgxa2pjaTJpX1d5SjJYWGtPaWFDTURnMG9CNTNidW85Y2tHck9wc2RGMmZxU2lIY0hDMU9Kdw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOdmRlWUplS2huaTBaUW5BVFMwX1V0MHVkYVR6RDF5RG1UOWhvbGQyWTFOVl85Y2lfeWxHOXVHeW1kUG13OWdfSTBVZm52ZmVRMk9DZlJqUWEydzM3Mzh2T0FwUkZ4RHRsNkNZdWJ5ZUlXNF9wQnRYZ3cySW5PX0Q4aThxWFl2MklQbTlSNzQ5OUFsNHpIYWhEUXpjNGg5WEpxcTc0Qg?oc=5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mon, 26 Sep 2016 07:00:00 GMT</t>
+          <t>Wed, 13 Nov 2024 15:59:36 GMT</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Maths and science must be the top priority in our schools, says Prime Minister - GOV.UK</t>
+          <t>8 Tips for Effective Revenue Cycle Technology Management - HealthLeaders Media</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxOTllDRk5IWmpCVEQtQncwZElMU2NOYkJUdmtiUE1XTUNBQlp6eEhMeFo0TmdpZXpjOWRjTHhJLWp6b2dCSmJoeEJTS2JnMm1FNkxCdVNhX05jUDE2S2NQTWZUa1VqNkotTjhIdVZ4ZGxCbExyMy1CbVVDMktxaXpIdGd6dlRSNVFLS2lSenZqV0F6aGdiUEhrSnBVQ1B4RFhKTXhQNTFhYTJiVWhJLWdnUEZB?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxQSWYyQUE3a25lMjJPc043Q2V6R0REVUVLLUh4eG84QWVmTWhwcU9kekNDWU9va1p0S3hGbFNCZUZoVWdMYTl3UEFuNGh4RjZ2LVJvZnlUSVh3b0NTejRCUUw3WUthbVdFXzBVQ0ZRZ2dGNDhKQzI4VVVDN1VKeHB3Wlkzd1Atcm5IenBHNFlvbTUyaG80OGFnZHVPY3hKSU00bnNR?oc=5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mon, 08 Dec 2014 08:00:00 GMT</t>
+          <t>Wed, 13 Nov 2024 12:49:37 GMT</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>민경현 (한국과학기술연구원, National Institutes of Health) - 생물학연구정보센터(BRIC)</t>
+          <t>OKI Develops Ultracompact Photonic Integrated Circuit Chip Using Silicon Photonics Technology to Realize Various Optical Sensors - Business Wire</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxPbFdRTzNwTWlGQXQwV2JHRmtIUnFUdlBDNGhCaXVPeUFOYjUxaXMzRi1mMkJXLThmVElVVlNhOVFISlNKSzM0VDZRTk9pY2lPRTIwY1pITno1T3VYMzJtOU9meV93QmN6WnZPWXBGOXpnMkZfVkRYZmVfN3NwcXg4dXE3MlBwMUdoNG5IQ0tyMTJJUGVX?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMikwJBVV95cUxQMzZfbUNHN3pySlBqXzd0THdOU3U2cVlMSkdXbU41VnRValFsejlfcGtQTklkY3RMbWpaXzBrU3V2c1NqSmNWSzhpWG1BNjhOQVVwbGFkQmd1QjVCQTRnZDlmNEJDSmFQbHVia1FiRXZHczR4OURPdG1pdzY5SFNXQ2pjb1hpSkVwSkI2a25ySVNNWWVsYll6MW5qc29qRkZyZHNna21INy1Tb0RyLXJ2YTI3ZU1aTGRPMHNPb3I0MW9OTHNldlIxLW44b3ZrcmdReGhzUjdyMFdsSXJOa051OUNfZUFoTG5hbUNQVzFnWVRVTU5QaF9WLUhsdzRFbkZ1ajllY2hLUEQ5X054bzVNNTQtOA?oc=5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fri, 08 Sep 2023 23:51:01 GMT</t>
+          <t>Wed, 13 Nov 2024 17:00:00 GMT</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>First Newsletter: UN Women Centre of Excellence for Gender Equality in Seoul, Republic of Korea - UN Women Asia and the Pacific | UN Women – Asia-Pacific</t>
+          <t>How Tech Created a ‘Recipe for Loneliness’ - The New York Times</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxORURPajlwcXZwQUJKbU1ZbG5XLWd6MmVCRHE3ejctNU5JX1YxR2pjeGlTUEI3eVlCN3dNdDVOajR0S0pGX09OSENVUVY0TnBwOFpLcmZQZkkzNDllN2J2UkR6N2lWRjE5VS1CRTlEVl9qSFFxQmYwWmNnRXBEZnpKWWRYTDA2T2FaeUdWVklZNVZzMVl4dW93?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxOM2RzYktuZ0dxRnZDSnVMQV9EY0FTR25uRE9scEpKWWtmODBoOXE3WmFVSWlhSXN0YW9COVBQRGQ2OVJERFFPZHBWbUgzb3o3N2lzUUpob1ZfZDhJV1Q4VGh3ODNCZFgyMzhLM1YtbWxQSW9QVWZkUlhUT09XNl9CU0ZjRHhrY3BwaWhvN1N3?oc=5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fri, 07 Jul 2023 08:04:01 GMT</t>
+          <t>Sun, 10 Nov 2024 10:01:07 GMT</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>이태걸 (한국표준과학연구원, UST) - 생물학연구정보센터(BRIC)</t>
+          <t>Dragon Age: The Veilguard's hair technology features 50,000 individual strands per character - TechRadar</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxQUDBua1gwMnJHWnhud1ZCV2thS1JPS05RWHlMWTlTRGF0N09iSTRkQmVMMUNSVkZpSjhRM1ZPZXp6aTNNc05leFhDYjhqSlhpV2NYSTE4eGhuZ2lNcE4wakdpeFJJZGNpT0dzV0VYWlZMQWJjemNNbXpFNlMxLVI3NTk5VHdyUzdWS2tBM1R2UHo1YVk?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxOR0txbVRqUkZCVHdYd0wyY0VTTkRkOFdrWEdNSnNNdE42bUtYR3FYUWxRdkJNd1pna3VWcUloV2JRMzgwNG1ZeE5KUkJUMndRV0xZMndsY3VVNFFSZXlaWmxSblp5Y25fT1d1SFNieGpGTnJleDRleFRTVzFMY3RCdDBwbTA3dU8tR3lGb2ZLazkxbEJZMlpHMjktM0JZRWthOEFJNXk2MFFnVll1Vl93UjlLSUEtUlhRSDBSR3ZZYWtfYnRlQVp2QkhIVnpoNE9q?oc=5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mon, 07 Jun 2021 07:00:00 GMT</t>
+          <t>Thu, 14 Nov 2024 14:21:50 GMT</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Korea's space projects overshadowed by researchers' poor working conditions - 코리아타임스</t>
+          <t>Hydrogen Mapping Breakthrough Could Transform Energy Storage and Technology - SciTechDaily</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTE53Mnp4a256d2VDWFZTUkdPRU8zOWFvZTdkeDZoUVd0SUFfZWVDM05LYk54MFozTWNQYzRhd2dFeVh0RW9HLTFxNms2VUp2bi11NVhxSERLV05FakFyTi1nZUhfeFVHNkZrcUppT3k0RmfSAXBBVV95cUxNUVlFUHd4MzVXeHVDUTNqWGs3Zlcwb0NBN2pDcWlpYVNRY2c5TzJISkF0ZUdMSTBOdHZoa1M4Tnd5Rkh1YWtXMjlvRDdTSndNVGRjMndGQ28yOEd6R3h6S0E2R1NlLWVHLXdaTlJRc1pW?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxPX3hoZkh0RjN4ckowTHhmb2diOHFpc0F4a3dTSmhpQ1REdjQzZG5BQlJHQ0piUGRIMDV1R3RnSzVmMW1VVGg5MGdhYWw5UFY5UXRSSVZYbWpKOVFibzRsZnFUUnpPWmtqSnhPeHdSZlVZWXhtV2FxSTBMdEsxRklmMUhtbDk2aXdNY3BMZlV4dGR0TWU5MUNlMjZfMFhQSnhXc0NZ?oc=5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mon, 04 Jul 2022 07:00:00 GMT</t>
+          <t>Thu, 14 Nov 2024 10:00:41 GMT</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>North Korea amends telecommunications law to confiscate cell phones for texting in South Korean terms - NK경제</t>
+          <t>Businesses are still missing out on billions by not harnessing digital technology - TechRadar</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiakFVX3lxTE1pZUF3TndWS1BUTU8zVUdrR043TmItZklWcUNzZXB0X3R3QlZ6QVcxb29Xek5MYWVKdjdjTkd3ZDlJM2F1MldZN041NE9xWjdQWkdlcjhrcHJwZGpDRG5mVGJZRGlyeXZFSmfSAW5BVV95cUxQQkFDYUpwZXc2LUNtbmZoRTU2cExIb2l5R2dLbEFZUUFKdzY3VlVXd1JwSW9FRWNuSEE0blQxMFpNZ0FBZDBaT2NzVnBhTVFmYUhhdWlCcFZPNjZKa05zOW9uemdfVi1nT2VjNjFoUQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxNRVpNakpMV2toU0hIWUtLSmhYZy1oVUZMbTBzVHk3X2dGUmJyb3FVendxUGRKNDl5UjNwZkFtSmVHMWR6NGUyODNXLTZiQTliamE5ZFF2WjhjNHI0elA3eEd6dmt4VFJpUmJSUnZWa2FxY0lGN05wUjlMM0RZQkszVHdqTVNoRHBubF9zVHpoODQ4MHNnclNZUEtSZU8ySV8yNmctY3c5MEpmcVJGRlpNaA?oc=5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mon, 23 Sep 2024 07:00:00 GMT</t>
+          <t>Thu, 14 Nov 2024 10:45:19 GMT</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Winning Move with Miracle Anticancer Drug CAR-T: modern myth wrought by 30-person venture - 헬로디디</t>
+          <t>The AI lab waging a guerrilla war over exploitative AI - MIT Technology Review</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiaEFVX3lxTE8tMzdYQzBVZlhieGFDY3dsZmc5MnJrUmJCa2h2eFJoUEdxalRSaTNYMF9ETFU4cWk2eDdCVURjc0gtNDZpZnA3VzN5WTN6bmxPLUJnRThFOGpzcC1VaTJHOXlIUmpPNnhn?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxOTVNxbHVzRlhEVXB5QkttUXpMTDRTanIwWm45WUlsU1dGdVE0TUZ1NGw2SHJNcnN1emR5Z1l4TW9tdW5fV0NNMFNsbnNrYVQtR2RaZGhfeVNEQ01MZ1diMEpCR3M0OTExaXVRVFRtYnpWN3RUa2pnRm9BMFEwX0tSRG1lU0c1OWdwb2VFYVlEbWlyZHdOT2VuTkdBQTVHSS1yVG9XWTFIT0kyZVNSMVFpOXlPcDN3b1kySGlLaF9pODFTaEFz0gHKAUFVX3lxTE9ja0xEX3htdV9HZ05mejV3LTZyYzBfQThKM0JWaTZxcG01MWhCRXFsTUUtMnpGSElvaHRPMUJXdG5CM0UzSGJBMkFmMkNYMDZYM2oyNzNRV3I2d1NWMG04c1JPSmJMRFhnUTVRLWFyNldjZHFBdnZ3SzgtNGZSVTlkRlJyRlM4UWMyeXJ0YUV4RGRZSFB0OHluMTJwdC1vSE96RGVlRVl2ZDU5cVVRRGZrcXFCOXVSS1lkX1dORC04UW1mMXMxc3pFYmc?oc=5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Thu, 05 Nov 2020 08:00:00 GMT</t>
+          <t>Wed, 13 Nov 2024 10:00:00 GMT</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Professor Kwon Eil-hann Develops Waste Resource Utilization and Energy Conversion Technology - 뉴스H</t>
+          <t>How Is Technology Shaping The Future Of Diabetes Treatment? - BW Healthcare</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMia0FVX3lxTE85MkhFbjJHZU0wcHdBTEdRYm9aMEdleWNpR2Q1b2tzeGVlMm9rYjg2dkk5N0o2TE1GR183c2ZyN0k0eFY2OWNZNzN2Tk5jbENkNWxPd2F5N1E4cF9uQmRqcmJGYmIwQUtIbXZF?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNMFkwU3VNUTJxcHNSZFRwcERreTczdEFySEpYaGZvM09UX3NsODlpNVc1WE9JTjdlaWo2WWZLeXIzZEIyTW1kZk9iY1F0d1ZfUmJOeW9BM3cyMklVQ043R0hUNUMzb2ZFWGpQQnlXT1pmSFk2a0dhb3psZTY1ZWVRbDliZG1RNWlTcWVqN1FkdUo1YWlscEZrSjFQUjh4dWo5WGx1TFNR?oc=5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fri, 13 Oct 2023 07:00:00 GMT</t>
+          <t>Thu, 14 Nov 2024 14:39:24 GMT</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>이준석 (고려대학교 의과대학, 약리학교실) | 한빛사논문 &gt; 한빛사 - 생물학연구정보센터(BRIC)</t>
+          <t>Technology - Lowe's</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxNNXVpTWJaUUZ1S05oYU5xbEF1djQwSXVNZ3laeGlGaWFLbVNubUx0M3Nrazl0X2RoQ0gwMFAtd0gtMUtfVW9HS1lYQ2FfWmYwSkE0QUd5WDhzWG9FdVIyM2phcE9oRTRRcFZmNVN3UzJ0cDMxcDZKWDdjTC1idGR5Yk5HUk9Od3pvb2ROZDhPd3Nsc2RV?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiS0FVX3lxTE05ZWlqZjA3NFUwdG9DVTBRSWdtS3hpQWRJTmtPVWRUWmEtUkg4d0xDZzNBOXF3MGFFclozLXRTd3pDdjB2SGZyNW90dw?oc=5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mon, 19 Dec 2022 08:00:00 GMT</t>
+          <t>Mon, 11 Nov 2024 08:00:00 GMT</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Shaman Cheon Gong Claims "I Proclaimed the Unification of Korea in the Fall of 2025" - NK경제</t>
+          <t>Bringing Locks to Life With Strand Hair Technology in Dragon Age: The Veilguard - Electronic Arts Home Page</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiakFVX3lxTE9zWFp4N1NXN1BqYWVjamxrR09EcTRLMlhJMTRZc0lWOVRqNWJfMTFJaUdrN2RMbTBVTmVfTE9KUGhpMnNyallVY2M4eTdRem9BV2pSTVl5NHM3NERYZ1c0eXo4RjFKdDlhYXc?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMifEFVX3lxTE9CLVRkUk1ZdnA3TlhRUWtzVG9CaFNLaDM2VWwwdDliVmRHQThmWXcydWs1R0RFMld2VEhmOHFyOTRoYUhoaDdaUlRwSXVrbWJET1JleVoxLXZKM1ZvbVZZcVlmeHZTWDhJUzNXY0JIRy1hemZTcTdVVU0tYlc?oc=5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sun, 28 Apr 2024 07:00:00 GMT</t>
+          <t>Tue, 12 Nov 2024 19:08:04 GMT</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>North Korea "Use of drones in agriculture saves time, improves work efficiency - NK경제</t>
+          <t>Why CIOs Must Lead the Charge on Sustainable Technology - InformationWeek</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiakFVX3lxTE5uSzdTOTJ0MllFTEExYjVSWi1xemRHWmZabVVjUEZmMmJtXzRXM21nNzNDQmI1UzRJcWxNYzNDcy1KRHpvVTY0S3hrNUdOdG5yOGxmUENXeVpxTk5iZjI2bjJMLWowMU9KTFE?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOUktSNEdkUmlCWkNqclhkcXRtNFVIUjFyRS1UQXVIVE9MekhKQzdSamRRUXgyQmFVc2ZYMWdwa0dKdnUyQ0RBbFNNMzYyOTlrbkoxYk9IaHdGNi1xcUJqUm5MVHhROE8wY3RMSlNIYVR3bU50OVd2VVhIbU5yZTJOUWRqX3Y3YUx0blhBVHNQRk5uLXFWQ05OQjRKb3NlOWRGQXR6Vg?oc=5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mon, 29 Apr 2024 07:00:00 GMT</t>
+          <t>Wed, 13 Nov 2024 12:04:09 GMT</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Child Prodigy Admitted for Shortened Doctorate Course - 코리아타임스</t>
+          <t>Ceer Partners with Rimac Technology for High-Performance Electric Drive Systems - Rimac Newsroom</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE5hR0EzemFDODMycDJCTHZKNjBOSHFUOW84Tll6WmJqOEhpM3FxVUg2WW1VSVFCaHJDTFZuUkZmdTU2VklLRWhoeVRyNl8tNXQ4WVVWOXRfdlhZb28tWEdpYlVnWjB5bzRCbldKNmF4Z9IBb0FVX3lxTE54NDBock5fUWtKY1hmSVppTHNkbkxhVURGTTA2NW9SZ2tuaUJmMFQyUDFFa2hYVUFiWFhiS042anRzYU5PM0RxT08yTm9KYUVKWDFqTnFXdS14bHdyYXVfVnZSV0JOUHJKam5HdjBtNA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxQekRrSy1KZVEtcHZDalIzcWNaNmtra1lpUXVSb3c2a1ZUQlp0WS1YbWFQdkR1OVhqVXhhUUlNNUhwcmx2TGloYy04eVllMXd0eVBCQjUzNDMybG1qQUZLOHY0T2VRamI4dWV6SUZ3YTZ6eU96bUt5LTk2QV9hUGZpM21FbWNQckxCcS1FUXc4VWlIUTZVLS1RZGZIRE4wT0VaTmdRcF9xNC1aaWhUNkg4Q3dhZ3RWQWNxaXV6QmZITnpSVU9KekJDc3E4TzJseWlQTUs1bEgxY2dJZw?oc=5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mon, 15 Feb 2010 08:00:00 GMT</t>
+          <t>Sun, 10 Nov 2024 21:32:05 GMT</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>17 new pyramids discovered by satellite - 코리아타임스</t>
+          <t>Demystifying External Actor Influence in Africa’s Technology Sector - Africa Center for Strategic Studies</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTE5FRjZ6LW1FWHVfWDRXckxhcm13YjZQMGYwTGxXc3FHcGZnay1rXzVmRHpjSklDclpqT0dXOVVXWkFXNXFGeXA0blBPZmhwQTNTQWhJYmNwNmsyeEN0UGtYU3UwXzRkWEVoNFdIV9IBb0FVX3lxTE5CcnhHUzZ1UVBhMWpCekhaV2JheERkUHRBUWt0SHJHYmlCTEFkRmdyU2dVcHZXQjlWQ3VQWEdDN2JRLTdYN3ZJMEswUDdYaWRPUmZ0QlBDTGUyRnZqZEpZcG9GSEpRWVRTck84OXI0cw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxOdUl1QkozRGhiOGd2VVRiNEdCdDBCRmxhNlUwN2pXZFRDUVNLaW51bEJlT2xHS1lua3hmZVJhc0VqREJPZlY4TWFlYndqa1FQbEVyRjZldHJCZThydmhqWDIzNlRlblZ1NElsR3c3eG5TWXlYOVpjZE5taW9aaFhTaFlWdFVMcXdyTHFpRU9B?oc=5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Thu, 26 May 2011 07:00:00 GMT</t>
+          <t>Tue, 12 Nov 2024 23:58:03 GMT</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Face of Tang Dynasty princess restored - 코리아타임스</t>
+          <t>Vatican and Microsoft partner to showcase St. Peter’s Basilica through AI technology - National Catholic Reporter</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTE5vYTZ6STNhWG9ybEd2aFNROXRjamRrbXBVaWtHd1NRUDYtOGFmUExzdURnSGE0SVRTc01GSmRnT21iVXVyNGdNZU04Vm9OdmV0VEJDdzB1LVgxUkY0aDNRMWpfN25rRnZEMmZkOdIBb0FVX3lxTE9vdE1rMWRtTDEzUlBMeURySXZYSld2MzZCeUJWcFZKbVpmN3hSWjYtcUtQS2xRNWxLUVFMaF9yeGZXdURrbXRxbXBuWnZPS0daS2FvZEREa3VxWXBBdEVtLURjX0JQQlFWSlBhRG1xUQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxNWFpCMmEwTXVUUVZvc2Nyd0F2Q0I3U1lSMHBqeFU1OHpUOHpZd2VLcGVuTWNRRmdENDJTWVlLMmxKeV9MOFFtNnZ6ZVFPV09LNjBiQU1ibUlOMExzSElzTjlpLUVSbnoyX2NQcHFDRWJvRmh0bFBtdVV5U0Q0alFSdTc5UTJkVE5sT283NXBIUTlBVUNBZEp4dEQ0QlQzRmR1cnczQVgtRk9iN2lpZmctQzhhdFRPN28?oc=5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Wed, 20 Apr 2011 07:00:00 GMT</t>
+          <t>Tue, 12 Nov 2024 18:00:02 GMT</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Taiwan Unveils Health Toilet - 코리아타임스</t>
+          <t>Shape-Shifting Membrane Transforms Carbon Capture Technology - SciTechDaily</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE5qNGc3QTVJazFxcDBiaFNEbkhLbWctZnFZeV9VY3B6LVN3VG5VaU5xQXJBdzMtdk5JWkFlMjlGbm9ocmg2SVJ4N1NaY1ppYWRXWF9FTXp1bHJzUGp6VllCRlVfZ01iQkl4SVBGYVRkVdIBb0FVX3lxTE9adHp2dUpoeml2WlpfU0NnSUl1d0VmLXhTYjg5VTZUb2Q0QmtaV3MycmIyQzZqZERBVHpFNDRYV2xzVDdpQnNnOUh2QklqYm9EVGFhM2Frc1V5b3VtN2xTWlZmVk5GTmY5SzNFSEZLTQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMijwFBVV95cUxPOFlJaWg0dWVsLTllZDhNMDVWMUdNaFlYeVotdm4wcUpmUmFlcXNIT3ZkNTd3VEpjdnVBVzhNVUF3ck1fVzRBeFNnam5KcExBa1pBYnpqZno0aVBjdTNsUkg0X1NCYmZsQXJOLW5aZ1M3NW5Ba3JYdk5mZmJ2aThjRk5IYkhYaHFEa0tDTFRtdw?oc=5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tue, 24 Nov 2009 08:00:00 GMT</t>
+          <t>Wed, 13 Nov 2024 10:00:56 GMT</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ERICA Signs a Robot Industry Cultivation MOU with Seven Organizations Including Bucheon - 뉴스H</t>
+          <t>Solving complex problems faster: Innovations in Ising machine technology - Tech Xplore</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMia0FVX3lxTE5FbExsaGxjM24wTkt0ek45OEhNSDBzN0F6dkU2ek8xVWFSRHFScFpYbGpSUTdwQjllSy1NZDV0ZFhvUzhTcHg5bXViYlZJNDZ6RmZZaDZ5WmswYkVWOV9tNU9oQ1Z3Sm1mLTYw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMihAFBVV95cUxQUVdieHNPNDVwbUN2dXlPVzdlb19kU3VLcVdzNi1KWmxjcDZ5R2JCUTdoc2tyRks2alg0TThCQUhFWFZReW1HVVJKQkNseU02Zkg4bDZzb2xFMnZWYk5iRjl1RXpzODNaVWVCeFFwS0YyakVCVmk3d1VlZnBNRVFFdGNjT0HSAYMBQVVfeXFMUFV0UGtkLVIyRTNxX3Y5eVlGUC0zRmFCYWVKZ1dwTzBGdUFzTmh3YTNaT0E4WnRidjZYWE5XcmNndVRwdWNaRkN1VHpBVUpfUzkxcXRYa1VzaTlDNkM0UzZIcGdST1NLNWZTVTc5YlVsXzFkeUxjOExtRV9iMHl6UEJkTTg?oc=5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mon, 25 Mar 2024 07:00:00 GMT</t>
+          <t>Wed, 13 Nov 2024 16:21:09 GMT</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Charge your phone with new solar power pants - 코리아타임스</t>
+          <t>Verkada adds six new technology partners to its Integration Program - SecurityInfoWatch</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTFBJRXpyb2dwT0t1bVppMzV0RU1wT2NBazVTQTNWaXJVYlF6cVo4V21oMnhJOS1Wem0tY2Vmb1FHXzVYb0lyQlVhbS1ENEZqT2xHZnVzSEJmcEZuY003ZzFSd3RJSTRGb091aXJTbtIBb0FVX3lxTE43N1ZrQ1VUYk9GU1hueDE3aTRNSy1TWHVQeWdyVmJtSEFleHRneF9YT09uZzlBTXN3STJ6ck8wNEZNWnNCZXNBUWRzcGEtckh6dThFZkVGRnd5eHNpX0toaU55TkpndUFJTW5CRE42TQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxPNHN0RE1yWV8xeUdIdHZxSnhsLWNoN0doN0ljZ0JwTUt4QXNPZlVtU01Fc0YyUjgwc2tMaGdrdmNoTTNVWVBtVHB5WlB6anAySnhKTzN4ZFpoTUxEU01kLTVyX0Z4amEwQWhwaE8xcXdXc3FmRTQtTVZXM2ZUTGh0eU0zTzNQLUV4eHI3bmdOYmtIZk4zQWFyclYtVkdFSmZDVE9pb0VMb3AzNUEzYWRXRlBNb1Q0SU45RnpGRVJwZ1BET01hMlBwbzJXTnpFR24yWnV4WGYwUTZsbDJHbXZjZm1oYUZYQQ?oc=5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Wed, 29 Dec 2010 08:00:00 GMT</t>
+          <t>Wed, 13 Nov 2024 17:12:51 GMT</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Microsoft Xbox degenerated into porno - 코리아타임스</t>
+          <t>Pope to Fabbrica di San Pietro: Technology is ‘a gift and responsibility’ - Vatican News - English</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTFBtWVVzaW9WNENVUmRiY3pzS08wX2dVa2tQTzZheE1RVnUtOHBxZ2ppb2t4WHBNUkRJMWc4ellEbHIxdWQwN3llOXZCanhVcm9IOWQ1WEg0alpTc1BnMzZZZUVSOUpoZ18zX1c2VtIBb0FVX3lxTE9yNVFGQjJQR2dkWWhNdGdTaXE5N0IzYnEwVlhJcGtGSzF0RXBJWkpHRVZtT3BCRkwwSVRYVGhnZDEwc09nampKV1c4bmNIMTNLZHJmMC03ZGdoMXVYMGhtdWxPNGRRWkc3anBYWDRmVQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMingFBVV95cUxPd1YtREFSRzBOaWlIdWR1N2JtS0ZIU3dPWWFWVDNIVl9SVGRjRGItSmFIOXl3dnh2M0Z5YXR6U3FlRldXcEVybzFiOW95anlva1RKTnhhLXpGaFIwN0tvY1k1TTZrZ2hXelU5RWFYdUZKRjZxRzJRSk9Hd3JNY0ZNQ1BBMHVCVi1KTllBa0tISjNxVmVuMmw4STVjYTZ2QQ?oc=5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Wed, 22 Dec 2010 08:00:00 GMT</t>
+          <t>Mon, 11 Nov 2024 11:07:20 GMT</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HYU Hosts 2023 Innovative Education Conference - 뉴스H</t>
+          <t>Top 10 strategic technology trends for 2025 - Bangkok Post</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMia0FVX3lxTE9PdVlIemxKaVc4VkJUY0wyM3M5dkswc0JGaVdPbl84eXd4VnRxbHNERF9lRklJX01FVUU0ek01cHF3VTE0QzNuMHYwM3lwa3pLcnNXU254SVBrcFdjdFdyY1E0c0M3V1h1RllN?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMinAFBVV95cUxORHJiVGNjZnpkWXdsdWUxbGxwUTUtd3Zvb1Z5N0VDelVNNkZ4cjEzUzZ2b1ZsUkx0QkQwYm1QLUs2SUhLUlIwenBtbmlvMVNlckFBaU5jWEE5MXZkOUtsaE82Zml5UWRjam9CX2ZQeDZVZ2NzWkpiMUM4aFZob3BUaUFBOURndi1QT0VaT3YyZUFEbGFwMDJjeVVXZlQ?oc=5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Thu, 04 Jan 2024 08:00:00 GMT</t>
+          <t>Fri, 15 Nov 2024 00:03:00 GMT</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Jackpot winner donates $700,000 to KAIST - 코리아타임스</t>
+          <t>Privacy concerns raised on use of license plate reader technology in New Mexico - KRQE News 13</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE1tSUV1cEhPbWMwQ3Z2b0F4LXZoSzNEYkVUSzhsQmkteU9Ha3lRSHBjdzNOTkgxSl9jc1pkd01IUld3czVERWZObE95MmY1aExZN3lPM2QyeDVUQWcwYkY0RkQweFJ1ay1SWllLcE9GTdIBb0FVX3lxTE5UajNZWTRWT284ekYtUWluUXI5U1BzWkFRU2hVOXVRYjRmYnhYTmhmTEZOSVJ1eDRWQ3IzS2pjeHdEMVZNVTEzWGtBSk5XUzBzMGh4TFhQWmZuR2Q4NnRveGVBNUdpRHBnMEZVS3VyWQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxQbnhabGJ1blJxRXJNbUJiNmtzLXdUQkFMZFpGMmJPenRYLU93d3pJc3FEVmp0cVhlM3FSU3dfaS1Ec2hxb2lZQTNMX2dhbmUzRE5qb0J3eDlzc19jMFlaZG8wMUFiWmhFU08tTnZJLWs1X0JCampjUTZhOVdzWTN6SDViajRGRFRJVzRuNWRVdWY3LTV5OGVuRHhqTjlITWdSX3ZGTnNQbjhWWmxhSUVaM1FPbzB0T3J10gG-AUFVX3lxTFBkSjZQcjhUa3U1VThPT0FZWjhSQ0F4bGRSd1RfdVl1bnFDY29qN19RLTdQR3lWLXNWWkxPYTN2N0tINE92bVB2OTNkeWtTUGVVLUZDREZORjJIeVljT2xBRWNKV2hDRVJNX1dkVUllVE5rWnBCSkVuaFZ4T2V1OWF1dk5ueC1faFdMTEhNZFU2RnBDOEZzVzFDUml3MEtsV0RFVUJwemVOYVJucGtwSkVJRlJLbHRVd0o0Q3owbkE?oc=5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mon, 17 May 2010 07:00:00 GMT</t>
+          <t>Thu, 14 Nov 2024 04:26:00 GMT</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>In annual rankings, two colleges see gains - The Korea JoongAng Daily</t>
+          <t>Many firms don't realise how technology can help them hit sustainability goals - TechRadar</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxON204TEdQb183V1hzM0YyQjBDSlNjZTZBR0t3TzREZFl5SVgwVDNnbENkclpZNTNlaWF5Z2llRFFXbmxIZU9FN2ZXZzhfQkZjZE1iY3Zmc2NMNGtRam82bVNjUlJTR0tCM3ktUUhVTF9JSXZ1b2xoX2kyWEU4aC1ITEpkNlc2WGIycEtnbm9mb05CdnllM0ZZTFJ0dnZITTJSUFFYdjRacHVCbkpES1NsZ2xsaTBnSjA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxPeDlRNFcyaXNSN0dfTjZxaG92WmJoeURzZU5YRUJ5VjhvM3pQR05memtWOEtzbnlLMW9sV2xHSVpTM2VYVGJIRjI4YjBIZU1KN2V5aHp6Ui1Jb2ZlbGhzZ1FHOWowdG9lTF93bERUdDRoNnkzQm05WGVxek5MSVhmR3FQbnc5VTVtdlo1TElqVHl1S1FySmd4ajQ1ZjItWldrRUlXUzdBRFZXdE0?oc=5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mon, 26 Sep 2011 07:00:00 GMT</t>
+          <t>Wed, 13 Nov 2024 10:46:00 GMT</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>North Korea Expresses Resistance to the Internet - NK경제</t>
+          <t>Technology - Ohio Department of Education</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiakFVX3lxTE9QeTBnLXVJUEhaekdFd2lhd0o1NEdjSkIyR2lEQWZDeFBrLVJsdVRDSVdRa1QtLUdwOHdPb1NJcjZZRG1rbkhMLTBBR0gyR29leTJGdWZRUEZZWkIzR0JyaEwxLXBPTVY3V0HSAW5BVV95cUxQVVRHNmplaE5WY21kM0IzcnZoQTVUY3J0TFFPZkVabnRHVHRyOHRRbHJVdUQxWEY2bWJmLS1ZM1FqalNXb1RjN0FSaFFxbUEzT2VYOVFkQ1pYOG0zd3c2VXZKdW9YaFNVM3ZxeklGUQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibkFVX3lxTFBfTlpXTDZjWnB4cXBWWHd3d3k3THV5eTVGWUxuLUMtdlFJcGFENTd1RV9PazQxQzFjYVZfVUdXNzdGWXBmUXhWem1BRTc3dTh0ZnBrOF8tZzBrS1ZEejcwYTNhTXBybFRFazd4cEtR?oc=5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sun, 04 Aug 2024 07:00:00 GMT</t>
+          <t>Thu, 31 Oct 2024 07:00:00 GMT</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>More native English teachers quit - 코리아타임스</t>
+          <t>How Early Technology Education in Chicago Shapes Resilient, Creative Thinkers - Chicago Parent</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE1HOXJDcXNSOWU2NkZrV1FwYzluc1lqX0JDaXM1alB1Uk1VYlB4WmdndzNNWmRhOWhqYzV2XzBQZC1uc1gyelNxN18za09HRkU3bThXM2RCdml4WDJBb2lrc3VKRW4xcF8zVy11bC02MNIBb0FVX3lxTFBoTjIxOXh6MVRsZHVpVkplODc3Tk5Ic2Zsa2hGaVdHRERYTXdfb1BxdWJsWERRRzRxSF9IZ29oM0ZlRlgyN1J6RDBLZEJCZTJBOGd2d2FvaWlkTG9EWVpfX2lScWdSa1pYMFVza0FoRQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiiwFBVV95cUxOZDJrb29uRDhqTUk5ZnZBT21uMHhfcVJ6WEs0TTVicjFGYjZBTEdseXlSNHVodlF5ZmRuQ2p1cU5IUWVjSjVhcXdvRmRKY3IxT1pQQkxQRGpNc3hyajhnbThTdGp3ZU1MMzczV3JQVnlkQ1BkNkVXU3pNcDk0aVZfMDNINGd1bGZtRHBV?oc=5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Thu, 30 Sep 2010 07:00:00 GMT</t>
+          <t>Wed, 13 Nov 2024 16:07:27 GMT</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mercedes Unveils Electric G-Class at Beijing Auto Show - 네이트뷰</t>
+          <t>Cisco Unveils Wi-Fi 7 Technology; Unified Subscription To Support Cloud And Premises-Based Network Management - CRN</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiUEFVX3lxTE96dTYtMENWUmI4S2liZ29pUElfeHpIT3E4aUVvOGFmekR4VjVYcVZFSEZKNnhNUEY3c2JwckVpekt4clNCQVF3QWRuZHNpYUZO0gFYQVVfeXFMUFNKeU9FV2FVaks3UFZiM1V6NmpBYlR4YWNiZE1SUURjeWpEWWpfX0RJb3h2VTVUWTZXdHlnZ0ZaaG15aGRVb0cwSzFwT25QaW5IUHRQRjIyNg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxPME9jeXZZQ0t2SzMySGlncjNaWGxaVlItdmM2Z2VLaVg1MEdUcFhkRWZXSEhfOG5XamRSS0lyNXdpNDJvNUNTWXNvak9ONEZhRFY0R0lhcEpKSUNMWGlEMDFKbHR2c3daSWFIbHp3ZkJpaEVndjFpYlkxV2t5ODhvS1FaMGgtTGpfV2puSF83Z20zWE5VVW5YOHZDcXdTSVhfc1VPMjlZc1J4eTVNbzQxQTNKQjljY181WTRaamhHWFVDVkRKeUs3TUhRUHU1bWktWV9LUExfVkV3RUwwazdSRTRn?oc=5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Wed, 10 Apr 2024 07:00:00 GMT</t>
+          <t>Tue, 12 Nov 2024 14:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Real-Time Parking Technology Being Tested At 6 Commuter Lots - Patch</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxNSXlsS09BeVJmOC1MdEo0a1JjeC1SYTIzUkEyaFVENjRUUktkenVGY3VESks2bklLM0t3T0JNSDNQR2JhdmVvYkhJd3VieTNDVXVLenAwalpTaE1kVEQ2MklsRFNZZGlSSUoxQUptTEVKZ0lBU3JoV2xsNzE1VmxUcVJlem40U2F0aE03NS02ZnBtcndJWFpZSG5mLU16MXPSAbQBQVVfeXFMT1g0M2JXSXJDVERXX0p5Z0EyM3JETWZCRjdMZHhiQVVJMG1zdWhvVjBReld2aU5fTElvTzY4ZkhEaUE0T1JlbEttYWYzODQ3UFdUa01nOXlxNzEtZzNRdVJxS3lQbWdENVNRN3Vyckw4M05qMm1TMG9UZkdpSlB1aVJnbktTblRvUFRMbnpBUUxrdnliY1MzTlhXeVBzc1dRbElrbmNFMlFEcjZ4UVdZcWVDZ2dJ?oc=5</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Wed, 13 Nov 2024 21:16:40 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Energy Technology Perspectives 2024 – Analysis - IEA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTE5aRVRlLUhSOWZ2U2VhVGk5Q09DbzNMbnVzWTdsTkxKcm55LUQ1Y3ItdDBvTDZqZi1sVDJYTllVcG15NVZEb2xGRFZncnAtVjBwMzItWDNESnNha2duMjZydUZBOTdUSlptMWNzVTlWS0Y?oc=5</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Wed, 30 Oct 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Integrating Security With User-Focused Design: Best Practices In Healthcare Technology - BW Healthcare</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxQNldKeDYtODViNS1fMGg3QTI2VUh4UWpSdHh4aVFOLTk1dzFTZzR5Vnh2bVpHTFJmVDl6elBkVlYzQ01EN2dleTJKcllJNl9oZFRPVVZid3Bxazh3b3NXdUxpTTNWSGpUeklpOXhhLTR2WUUxbUVjTXQtYVNGTVpwdm9vQWpCR085anhOTURaUy0zam1NMG5XeGdETmVFeDY0c2hmbkZsRlZRaHZsVEQ5TnVzRjJaSFRCZG9qM0JadG9CRzB6MUdXV1dB?oc=5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Wed, 13 Nov 2024 15:19:09 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3 Technology Stocks to Buy Hand Over Fist in November - The Motley Fool</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxPNW1Rc21oVHZRTmU0U19ubF9zRU1XN1luUk9HdGVKZGQ5R2RyTlVpMlUxb00zXzBJMXB4cEdYX2VBLUFiVGlMMWhrSUZfcUtEanlZX0NPZXhub2xpRWVQazlTaWUteWUwdVc5a1ZBeTh3ODBIM29Ya0NSaldTYkIzbFkybzIyczZQTU0xZ3UwNzdpU21aTlZZbw?oc=5</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Tue, 12 Nov 2024 01:45:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Manitoba Premier Wab Kinew shuffles cabinet, creates technology portfolio - Daily Commercial News</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxONThfT1ZTUlY3ZFRTLXFXNmxZaHF0d0xPcUIyMGY1QjRfdlhTdFhYRFY2X29QaW81RmZERlVhNmJlNHRPQU83RTZhaVlnZzJBQnhyUVF2eUtCRDlfSWxJSUU3bmRjLVgwa1h4Z1VGdTdjdExiYXR2c2NhTGpiSy00S1pQUFZNSXF5RFBPRjhFaW50b1VlOGxYODItQl9oSnMtUVA4MXRWMmw0X3Uxb3VpejVuN01nSXRDcjFvUW9oYUMtUkgxRE1LeDR0RHVGT3BZ?oc=5</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Thu, 14 Nov 2024 12:36:17 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>How banks can supercharge technology speed and productivity - McKinsey</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxPY3R0YVlwcWtKaVBGaUtJeTZ4OER4bDQ1MTZxeFZCT0diUS1UWHl0SUxKV2hfR1plZmkyYnlyektyQmpBd2gzLXBiaUEzREtTUW9YcWh2NkRTVjBIcEx1MFhrcjF5cEs4c0c1dzJkSW96LTNROG9FaVFRMS1GQlBDX3JDbF9qMERpcHFOLXNDeDFvQXdqT3k2bjlMUmdWbFNBTUhyemY1TnRRRURxYzh2bkx0bmVDM1ZFeDhWQ1Z5QTN6emxGb1E?oc=5</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Wed, 06 Nov 2024 00:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Managing diabetes: how technology is revolutionizing care - Global News Toronto</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMimgFBVV95cUxNYlhhNVZUMFZuT292dEhrM0xoVzlicFpDSU5SMHREbVdxQ185ZG8weWRoSGxNNkk5UVFaNTJkLUMxWmxHMjktcnN4ZXR4Q3dDM0Q5SUJFcVNRTGFvdEg0TG5peF9sSVBrOUFZSmFsVDVwV2l2THhhVkdEblNNNFVrM21aZU1GWlFiZEhYNmE4d2hUNW84VkEyczd30gGfAUFVX3lxTFBJOW5sRVN1WkszNGY1U1F1SmdzWHVoT29MZ1IyV2NIcFhsVGNPT29sWHRZd21UZDhiWVV1cGlwcjBfbEwzVzRPc2d5MWhGcWZ3VzdEelgwZnpwakI1S2Q5ZjZzVnJqUXBGMDVZUEgtLWYxYXp3WU9pV2VYNHZPQi1yZS1kZG50eVh6TkJWNGJXTnNHWG4zdjE1bHhZOGVuUQ?oc=5</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Thu, 14 Nov 2024 17:50:19 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Why AI could eat quantum computing’s lunch - MIT Technology Review</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMimgFBVV95cUxNbW5ySXJfQzdQa3RNV09XZkpJTFNYMDVDS0Q2b1BCZmJZbEdPMFNLUlJYc1FfS3FwMmE3ZFByNVphWlJzM0dZNTBYc0V6ZXo4UGx1bVUxNXhfRG1FYWE1UkVaQWZEUGtDSUx0UHowV1B0WU1PbVBUMUpYUGtvazZwMXVIQmI4Y3hLSFpabW1QY3dPc0xzLWFsY09n0gGfAUFVX3lxTE8ydFpRU1NyTEdfSk1Db3lCZGdibllaTkxUX2JOSUFZV1NFbGIwNkFFM3lQa0RkY0djOXZaY3BxUW5JWjBNVGNSZ2xnY3FKa1NYNFdENm52b20za2dIcS1rT3NnQnRPLUVXZnZpLVoxUmkycjlaVTFjVjFYQm8yTnhfMVFzcm9pR1p2LXMzc2VRMElKRjJOR1V1RnpqSTM0dw?oc=5</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Thu, 07 Nov 2024 14:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Technology has transformed business travel, CEOs say - Personnel Today</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMijwFBVV95cUxPTFFjMVdSbFFZM2V1ZU9qT0ttNVRSU0VYZzVublcwNk1NUHNEek1HMjZQcDQ1cXdZNGVFbnZVQ3lpcnQ0dklKZGk2RGtEaTZzQWtBd0xlX0pfbWdUbWtwMElrWWpXRlpUajA5V1R2SUVIeHhGUjBiM2xIRkpldlF1WWRsTjFOZGJIclJ2TlNWNA?oc=5</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Thu, 14 Nov 2024 10:41:17 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Office of Financial Technology Innovation - DFPI - California Department of Financial Protection and Innovation</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMimwFBVV95cUxOVkFobVRkenNtTTRJbUplaDQ3SnhfSElZUHU2VTgzblRtdy1rUXpRUEw0bXJ3WEg1Mkxvc0dOMHVfUnFWUzVTMk45YjBrcVlsSGNabUVjbEtMZTlrbE15M3ZTYm5taGlDV09DdnMwUjVfWVZYTU9ObzJLSlBpMGhpSExPd2JyQ3VtQXdnWUQ0SFAydUZVRDhmZG5Ndw?oc=5</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Fri, 08 Nov 2024 14:20:40 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>GMF Technology - German Marshall Fund</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiYkFVX3lxTE9PWENmSHlKRnozVGpkQWRyNVdjeXR1T01JbmVQaVVnX3NvdUVKTzRsVlVRYnlYWVpQNmlwOGVGRWZyUWJ5UnM0dWtaRzZMdzBwYi1rQVZwVW9GNmdqZzJTMmlB?oc=5</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Wed, 30 Oct 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>L&amp;T Technology Services share price rises 5%: To acquire California based Intelliswift | Stock Market News - Mint</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMi6AFBVV95cUxPaUpUb04zaHJHeGQyd1M5WkpJejBDOUdKeFMxVWRzcjRsYWM0OGJlc3k0NFg0aFlNOEZMamZxVW1JVjd6bTJsdlc1RG9oUXFSbjFiVTZuUzJOQ1NqUE9zR2RpamFYNDVwc0lPYUVGSnF6bUhBTmRkaWhqQXQybzVtYkRFR3dqSFFINWJoNUxTYXBJMzV0TE5RTFQzcVNPYWotQmExRWJ1TzRxNVRVZ3FRc2k2SHRISVdZTXROQkVFNDNBSGtJbEtHSi13TElOb3VTaFFXMFZ1VEFsS2MwZ1Y3OFhya2NLVjJx0gHuAUFVX3lxTE96MlFhWDBTbDdWXzlfNU55RnQ4ZHF0ZmhuOVNPOFFuS0w3SVJFSHliM2VGNWNfNEN0bG5XaV9fejRQUldoSHBiekxrOV9MYjVJdEU3SnVIZnlGVEdadDN4b3ZBbUxmMmJNV3gyczAyVy1PYkszYVN3Uml4dDNRdTVoQ3B6ckZQcTZfVm9IdGx3eFltQ00yUE5OeWx1VU5wVWpCNGpCd2ZQUW5EdEU4WkJXMHlPV3BXSi1DVWMwUHdzcUotckJYMXdfU1Q4eU1vYjBXdldvTlpPaXdKWXNkS2VNOHFkRW5pVHBjdTJoRHc?oc=5</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Tue, 12 Nov 2024 09:06:11 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>RTX's Pratt &amp; Whitney to demonstrate hydrogen-fueled turboprop technology under Canadian INSAT program - Raytheon Technologies</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxNWWVDN21DdGpzbzVhYTFjeDZUenV1QzFNWEhteXE0cVpRbU9uVFpaRVRsNVBNWnY4SE1ZTkc4UTBLSmYtVF92cTRrUnY5RFozdFR3Sy1sVVdNckU3c1JidE84a2t4VG9mLVpNNEFFUGt3WF9zWjQyazVHZ09YbEtrNDBiamJGQ3doZlItdkl5aUFDVjRyTEVOMU85WENiX1dsS1lERVU2RDRhUnB0NzM2cVJWUmEwTU1LbnZqSDk1cEVZZ0FL?oc=5</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Wed, 06 Nov 2024 16:27:10 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Department of Technology - City and County of San Francisco</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE9LcEtFazFBN0duWHN0MFk4cC1CRkU3QTVDSEZaM3lDTGRHel81QktrNUFfRFFnZGVCOU1YOUdxdFpieVRyZEpLenhFWmhrX1l2dTZpZW0yeWRnSE9Sa2JfaQ?oc=5</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sun, 09 Jun 2024 11:20:04 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Information Technology Services - WKU News</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiPEFVX3lxTE5nUWJjSndEb0I5azEwMVlqd2J6OGc3c091bnl5bTZfZmtRY2IyWWdwU20yZXhFWVBQRTExSg?oc=5</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Tue, 01 Oct 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Entrepreneurship and Technology Innovation Center - New York Institute of Technology</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMie0FVX3lxTFBYTUpFRmZEOEYyc0lMQzNlYVpvRS1EMmg2dmlLTTFZV0x6NEtCTUhiRG9FcVlfSkRBS3YtNU9qbXc0c0FkMmFoWXhwYzhsR0RCYy1YUW54VU90bUxpdjVWZFRESDZJZ3JncldUMkpZcDY2anVMazRrdjRyZw?oc=5</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Thu, 15 Aug 2024 02:48:04 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Gartner Top 10 Strategic Technology Trends for 2025 - Gartner</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE5qQzVMOGdsMzNieEpyUVJ6dVJHMDlHcmdObUx5blBKRGJEaUtTbTdMYm1aSGU2OERtMkNnWU1Ycjd3T1UwVHhPNVdxTkhsVUdLOFF1TFFwcmJCdE9kSkgwT1hXMm5ScXRnMFJ4T3pGbw?oc=5</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Mon, 21 Oct 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>McKinsey Technology Trends Outlook 2024 - McKinsey</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxPZF9UY2hXX0xPT19SblR1Tjd6U0gyc2MyWFZUaVN4Zmg1eHViQmNiSU9wa2JOTnFkZEhFNVhpdklpTi1DVUtKUFlaa1l6UHFzZGNvaWRUQnpfdDBpTW9pdW5aSG5hQU5Pd0N6TVhHUWZpMTFoakIwYS03Y3JSczdYWlpQdmZ1WHc5a1dRNV9TWHQyRm4x?oc=5</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Tue, 16 Jul 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Did Russia provide ICBM technology to North Korea? - 코리아타임스</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTFBrMXB3eUM3TkNUd09xd21TZ001WkpEdXlSaURRWVdWUzZJSHV4dHBnZS1ITXNXOFZvVzFnNU9BbVM0RUpKZmRTUFNKZm5HY29CV29LZFVvbzRxdHBHWFlETTRfWklHQTFVNGNtUm9UYy3SAXBBVV95cUxPSzF0SXdBOUhlVDAxM0xiZXFlWTRrTXVGXy1HZHQwX1dmRW1ZaV91WDRRcEhMaWk3MGdPZlc1M25TZFhlUUdkWkw3eG9hRkI2ODZnQlB1M0FfQkhmSXpIRlJpbTFZZ1EzUmdtU2tocnh2?oc=5</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Mon, 11 Nov 2024 07:20:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Technology Transfer Execution Plan - Energy.gov</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMihgFBVV95cUxNZHVZVkxvR0hWbmVJa2RXaHhELWJRam1HUXlFOS1sZjkzMDNHTkdYRFVhbk1NVGdYRFNTelhmbXNTSElZdldYMF9KZFNLWG1aZmJtX25nR3dhUVptU21oaUxQWkxGSVZWaE1DdVphNFdKUndnMUdZeENNeWJmVWpIRDFXTHByQQ?oc=5</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Tue, 23 Jul 2024 18:55:58 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>HHS Reorganizes Technology, Cybersecurity, Data, and Artificial Intelligence Strategy and Policy Functions - HHS.gov</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxNVXRLTGQyY2YxNUI4NHo0cVlDbDNULUZfUFhGUE9TeGpCZF9KYTNfbXRlVFNFcmlhZ05DSFpvRDlRdU9fOUFxYWtOY1drMUd6YnBLQ1pDaHl5WlVqZ1UwUS1oQ0dSalpsSHVySHhrVU01RHBLNDVjcjQ1R1NTdjZYcEV5c3hWYzJnckY2MzJBaUJ2amtXT3p3RjdEeXEtZGViWmxuckZRTFhQVV9iR0NBUDVvckxtVFFZc3VWSVBCb0phbTRaMHlzZnZLUmRMQThMZk56VThGLXFtdw?oc=5</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Thu, 25 Jul 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>US Technology Leaders Tap NVIDIA AI Software to Transform World’s Industries - NVIDIA Blog</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxPd2R5bEFUQk5rdlVhenBoTW5od0xfeWFGTUlIVVJPTDRFbVVaWUhVelFsSmVFUW5UYkZBbXBIUXR5ZlJyd19iTTZFcWxQMXBRWWhPdVVETVpnVVEya1dXOTlHSkJrWjhYVlJZMHBqTUprNGMtMWpuNXd4VDBNZFRPZFB4STYyNUlvdUktTFJlV1pKTFJDeWlMbENhRXFPbEVTSEJ6Zjh2WW1wZFc3U1B3?oc=5</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Tue, 08 Oct 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>University of Pennsylvania launches Penn Center on Media, Technology, and Democracy - Penn Today</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxONzFLR1pfZmZIRzlHZTQtRTAyd0ZKRHVJc1ZUcHBVSHdqdHVmWEJIRVRYRWhkRkVsZDBiZDNoclN2UUhnZWVObTJJN3dMbUMycEw1M0t1QjhkSlVkXy0xV01OMGphQTBGUktoMmZ5dVpZeUNQRDRWTGRicU1sbEdtSjc2VV9nSng5bktidFhzZDRHUEhWeWt5cEE4cGZYeFdNU0tjRm5pVmhFSDk2?oc=5</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Thu, 05 Sep 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Technology Transfer and Spinoffs - NASA</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMikAFBVV95cUxQcFhmdlZaU2l3UVp2clRoLTlhcEFLeHRWejdEczJEMEMxWTREX0RXNGFYOUxNT29WQjhFaW14R09HdGNFay1wSFlreW0xTnZZanFodFI5V1hZWXl1VEVMMVhkTVRhUEVVZnI1bjJKTk83RVQ3OFVEQ3JYMGYtQ2xDMnVLTGcyUHNwOXVHLUwyRDU?oc=5</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Tue, 05 Nov 2024 18:31:08 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Professor Brian Cox unveiled as the keynote speaker for British Legal Technology Forum 2025 - Legal IT Insider</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOT0tLTm5QaUJISXdBZXZwTllPVjNzVkF5R2F1aG9ubmxxRFN1ZWlGRlVJakQzRmgwWkMyall4ZzlPM1RkS3RGQktlR1FEU3VSRVFMcm5ub0dVVFRVLU1yNTlyTGY1eHNDR2VPUm9seVJzX0M3QVpBc24ycFdQaWFrUF9COGFBMGdGUUlZYmp6cFhKaUZEWUczMEEtVnBTRHl0YVUyUlJOakNpLXdGb0JxTGlrVnhvR3FFeTJvV2NoYzhVSTdXTFNuNmJfUQ?oc=5</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Wed, 13 Nov 2024 17:33:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Information Technology Services - University of Redlands</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiigFBVV95cUxQaGUxWWE2d0dGeHhXTG9sSFlsOUdxa044U2NuTXdmeHN0REIwSTNKZDBIZGtuaERMZHdjakk4R0JBLUc2QmhpSzVFaGN1aXNocmpiZmZJOFpaRlNtQ2JQMjVQTkhkX004REhGc2R4LWI4VU1kLUtZV2htMFB5MW1KN05TakdMU3JGOEE?oc=5</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Wed, 25 Sep 2024 01:01:08 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>$50 Million ‘Build to Scale’ Funding Opportunity Aims to Boost Technology Entrepreneur Ecosystems Across the Nation - Economic Development Administration</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxNbGlldFE4aGd3clUwSnBRN3JveFdnZEtaSW9SbGZPMy1qN24teWRkaVJncV9wVFRvNGVRMGk2YWJrVDlFV2M4ckZBV2VSbldhR0dnMi1IMzZGRVFIWmMydnV0NnZDVy1DaGdqSTJFbDFqc2Y4TDVsVEhZa3Y3VjY0bUUtOGs0YVRnaTB2SnhmZDVkVjd5LVVVZGhhVnl2MGQyanZadVpvZm1tYW45c1loM19xVTNTRXhpSlE?oc=5</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Mon, 09 Sep 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Is AI dominance inevitable? A technology ethicist says no, actually - The Conversation</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxQNENvM2JpS3JVVHNWWU4zSFhyRG5tb0kwZFR3dnQySGstSTJDbXdfT2swdGRPa2M1QkNRTHdlOVRoeXJ6SE53MlJ0TS1pQ3FYb2hwYWljMTA0cHd0YkpmOTI3bEhGN3hHMk1FNUVwT1dPNjRNNGJFdnJvTkh4R29SSFJqZXAtNzFySlZtTEh1blpSODY3YzBVYmRhbU82VHI3SlE?oc=5</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Fri, 08 Nov 2024 13:37:16 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MIT launches new Music Technology and Computation Graduate Program - MIT News</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxOMGVZSm1EVllIdy00LUs1SnJLMlN3X1drYU5TSVlDVW9pUnlDTTVwWHM1aTQ4TFc1X0ZUNHRpNURHanZNcUNvMmMtbXo1NlRKbGpIbERTUUpET3F6aDNUXzRPR1RiNXdXSnQ5X2dXUHh2dnJGRFB5NDQ1Mm9EcnREODhnOHdGS2xSWmU0OA?oc=5</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Fri, 27 Sep 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Information Technology - Morningside College News</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxQSDlSN3VPQ2NSek9ZaEx4SmhCUC00eFdkTWtoU3NfbVBlNFpDb2FZY0prQkd5M1VLMVktcW4xZUtYdmE5WjlLdlM0S3lSWXl3VTJPZXpHcTMwTWExOUNxaGtTZTVGbzA4Q3VsNGlNalp5ZjhLS2hERVhBSFN5ODVjY0JIbGIyYVdvMDlJM3pldWxuYVpG?oc=5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Wed, 02 Oct 2024 16:17:08 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Smart New Laser Technology Can Monitor Greenhouse Gases Faster, More Sensitively - NIST</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxOUTVyNjd5a3FfM0ZkS2cwY0xLYmc2RE0tUjViYnBYZkc4ZnNCZVZDRkh4QnlaYmlsM2NFYllSbXFFM2NMclhlbGxHX2E1ZThHSmEwa3U4bXRobk01cG9UbGM5TjRvQzJ5Ql9tWlo2REYwZ1k4MzUxWF9xN01XUy0xclhrN3NGdzZNQWRKX3NUQzB1MXNXMjhxR0hXZW5xa0tJZUZwQ2xIWkctXzJpRVBCVlZnYw?oc=5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Wed, 09 Oct 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Information technology policy - GSA</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMigAFBVV95cUxNWG1lVkFQWi1hckQ0R1FZOHdzTDJaVEJscGlBMUtGcllSSHJkdkg5cjFoMnRyeGtrSDBUQzZLTTlXWDJBZGdUTnQ4TWZfN2s4QWFHV0JNQm1ZRzNVRVdFN2hCdFhSZzY4UGJIRzJRcjdUOTNGbDh3QzNzX0tfU25lZA?oc=5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Thu, 22 Aug 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>IT Solutions - Texas Woman's University</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiQEFVX3lxTE9QZG1XbWdiLWJTdHBYQVI5WlE0Wi1jbHlfNXRUeXRKaFBiR0pkSEFzTU1JYVRzUHRhLTBUTHVGeFU?oc=5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Tue, 15 Oct 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Financial Technology (FinTech) - Public Affairs Detail | Federal Housing Finance Agency</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiTkFVX3lxTE05dlNmUkpfNVFHZHRDbWtxOW9qSjduZjJMZlFlaW04ZHVGdHctN3VxU1VfbXBIX3p2S1hoQjFob19uWThJaDFRaC1WcWVKdw?oc=5</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Mon, 05 Aug 2024 19:15:10 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>VC firm Pavestone raises Rs 816 Cr for technology fund - YourStory</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiiwFBVV95cUxOaHYzT28zYmRscFBhTkI1U0ZuUV9abGZ4bGh2NkVKbEdITmtMcm9oSWp1eEUtYjB1dE5jTFY4TDYyY2J6aW9zdDdobW4yZ3Y5R1lvdy13MVNZOUFNcUo5LTRkTnNudFRRSlhDWHlJQjRsS3BvRWpoSUh6REp2eVQ3M3FlV0l2YWswQ3Zr?oc=5</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Thu, 14 Nov 2024 13:36:30 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Lenovo named Official FIFA Technology Partner - Lenovo StoryHub</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxNN1Q4SEJ2bzRVOS05WnpMUGVfdzI5TFJsQzMwZ192cE84anpDVGd2OG5LbVZ2NjNOeXNEMWFqMmNrUnNTMEROdnBfOV9TLVFYajZlekRLekl1cTVmOUFTbVhsYUlCREw5Mk5VZHNJSTNWTm9MNXEwSXV0U0gzazQ4dEJLYm84LXBzc1VGZjZPblY2MDg?oc=5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Tue, 15 Oct 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Minister hails NASRDA’s 25 years of advancing Nigeria’s space technology - Punch Newspapers</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMilgFBVV95cUxNaE5VOEtQUEw2US0yTkVDUmNPY0xzdnJlNFJELXcxOTNUWnVoV2QxakhPMmlJMEhYYllXODg4LWkyNWxiR1pIS2l3X2hBWklXM3lwUjFWU3p0bmdlc1ZVbk9hWkR5RmNVQ2RUaVFrVnZPR3BjR19KbklaZm9Obk42UTYwZkY5SkxlOUoxQk4xUmxFOVAtLWfSAZsBQVVfeXFMTXkzbW54dGg1X0R4aVpkLXlPRWYxRktaNWZKNHRGYmpfV09BRWIxLWNVNGdtSGZLVnNHRUlNX0RGSG5FTE4tUTdzNFN2ZVhQTE5aM281bHRYOE55MFBXRGZTX3BaOHVaaWlQcWhwS2pGUnlILUJRcnFaYURRdUNxTmtRb2ZyNHptSWRBOGdwcGlXbXp0N3VZcmJOY3M?oc=5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Thu, 14 Nov 2024 17:47:05 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>David H. Ponitz Career Technology Center - Dayton Public Schools</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTFBBTGJyMDh6Nk83RkVUWW5GZjJtOVRDNXRJZ3pJRjNBczZzQmpRWW1WbF84ZDhkUjgyQnVoQnBYU2xPYlJjeF8tbHFuOFpTeHJ4Y3l2Z3YxRFYwOFY2QjlXdm5aTkdsSGtQTFBvTDNLaw?oc=5</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Thu, 15 Aug 2024 22:24:21 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Ocean Science and Technology Subcommittee (OST) - National Oceanic and Atmospheric Administration</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE9zOFNtMTVQVUdEbmNZR0JQOWdneW4zUXpldXZOMkwwbWZsdk5HUmJFallHXzBJelQ1TkVJTGFaX0tSMWVNaFEwYXhRVXFjNWV5VnhUYWZQb1dlb2RTdmZ0SUJhcXR3SVo5dDRFZk1aOA?oc=5</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Thu, 29 Aug 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Mayor Harrell Announces Crime Prevention Technology Pilot Next Steps Following Public Input - Mayor Bruce Harrell</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOQXR2a0tMZUZrb0kwT3I4cHZpMWY5RkNLcnlkeGw0VXBzUlJvYzRjQVd0NTRjbDJwQVR0VE5DMDlFT1pHeS1xZFFhRmVJY04tRUlLNDlRWEVuajhSZE9kM21UWnJsLTUyUWZNOFBqU0ZUd3ZlSGk3ZkcxOXBIdm5sZkNiRWZqT3BHRUtza3FhUEhod250eUxSUEpjQmtxYVlhNFRXaEVDaXdXZGt1M0Q3YTV1Y2dFNlNMSk5nQWtBdktoRGdkLUF5ejM3RQ?oc=5</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Fri, 31 May 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Bureau of Diplomatic Technology - Department of State</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxNdTdRazlkZTdXejEzWGRxcHpCWGsyTWE4WkhBR0hsdFdCZXJxdXZQTUtkVEFzVXZTNkhHdUFOUGs5V2lRMUJTQUtXMHFTWlU5dy1pQVlUN25zb0RZUE1BU2xuMWQtTzMyS1ZxdUM4UzFQOWJYaTZPa0N2eVR3MVRqNDM2Tmg2SjZDOVIwVi1ZLWdmNk9hSm5UeW1xT1R0ai1fS2pr?oc=5</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Thu, 16 May 2024 15:41:14 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Inspired by Spider-Man, a Lab Recreates Web-Slinging Technology - Tufts Now</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxNeUN5MkpYUFQxQnh6ZllzV2NiOE9iT2p6Q0ZJX0hXMDJPQ0ZXMkVfb0tPbXE0ZWNnNUFqUzNsMU52OENRR3VMa2NqSWtCZTNteVkwdzZxVy1oSW1nOUh0YUJIVGg0SjRJR0lYX1JoekJBMFRaRG9NV3VJMThibUpiU1BkUVlBSGdORW9KUTZfOVY3Q2Fa?oc=5</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Thu, 10 Oct 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CSIS Names Navin Girishankar President of Economic Security and Technology Department - Center for Strategic &amp; International Studies</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxPUEl5MWpkLXR5T3dWX2RaWEZwRXpmazJ6SG9TTE9SdDZ0M0Q3NHNNT1RZWG9DRWlOVDVMc1J0dlhjNC0tUGlaamY0NGhMZTZtdmU2LWRJdHNpTm9CWWR6U3dOWUM2Qm1GOU85bEpkTUQzbWFFMEpxd1RVM2JaUGJqMjA4UHdYYkFmNWtaQmUtbGZBTGV6UWphSWZBcmFfRmJRN2NoMVFnS2RQWWtp?oc=5</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Tue, 23 Jul 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CDER Emerging Drug Safety Technology Program (EDSTP) - FDA.gov</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxPdVI1RkVYOC13MFdKMlI2UVgxUGUySi1GU012TzRoQTdnUjRCNE5TaFQxTXpTd01hclNBLWF6cGtLYm03bHB4Z3VrMkNFUWc1NmlFYUluTDhIUjZfVU1ZU1hhMjYxZldKUURuRHBvRlE1aUxmYTRTaXo1dDBrbWg1VTRaWWhidkN3NTh4SzF6NzBaZmVlQ2tpZklJMldqbUg3T2FsVFhn?oc=5</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Mon, 10 Jun 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>A new dawn for the technology officer - McKinsey</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxQbV85M21zRWNRbnNZODI0bnhYM0lrMS1IZnU5U2hDYndieXhtb0x1dWUwRDJmOElsbFNOY1BCZFlTb0dnaU1HVEh3aU1fZkZEM1lEWXF6MTNOVXNvZGZhM1gtckU5RHlpejhycEhVOWE3VS1HWWxaQ0JENkVueHNJMWRINHJKc1pPdWlwTFZNOXd0c2t0NU1nRmFMVG43ODVlQ0lqejRuTHA?oc=5</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Wed, 11 Sep 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>James Frazee appointed Vice President for Information Technology and Chief Information Officer - San Diego State University</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxPRE45b3NhUlVOM21qaXFscmVkQ0JsY1RVaW5ZOHNXRmJleV9tQ0ZWa25oSXZxdHpzeTFWaGNUaFQyU2VIckRKMnNrcWdkVHBOMmUzVGV4M1RNc2FUR2xGNzBmZUk2SXRZQUxyNUdpZnpGM3g3NGpvM1NvQTB5eHJkdTVmRDVzaUI5cjc5UklBUWR0V1Awam42aGcyQjVJT3c0NTA5N1BscWR6RHFHZ19sUlJJa0FWSUdnVDhMdFNjNlp2LWlxSTJn?oc=5</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Thu, 26 Sep 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Business, Marketing and Information Technology Education - Oklahoma.gov</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiigFBVV95cUxQQkpob1JtSkJ4b1BKWHVESmFwOUN2UGNMM1lBN2UxSENDM3BObXgxbkJTVG1nMUtseEpLa1FURG9fcUdpWXBidWp1YUlqQXJrT2F2Sm01eWFrMWpveXQ3UTlxRWJ2Q2ZZcDBtTVFucm5rN05ZZk90NldsdFVCSm9qc3FwUjBxUDJKS0E?oc=5</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Fri, 20 Sep 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Technology &amp; Innovation Center - City of West Palm Beach</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxNd0dKc3BBckFLZ0dQM2w1NlVBaERSdEo4UnRRTmpIRE9WdldrcHZsNDFzUllGWHhzd2dzV2RsRTB2a3JxQUVydVFJTGNBVF9OM29xT1ZCcmVCOTNBTlVWUVRqcHhyN1N5T1RLSGZGLVR1QWdHaDduWlhYUzQxUWloN1JMMjZqelJCbHd4em05RkU1NHIyMkhmTVVZOTlRZl9Eajk3UGVHbzV4WGdHLUJfX2RB?oc=5</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Thu, 15 Aug 2024 16:58:44 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Wayne State University’s new assistant vice president for technology commercialization announced - Wayne State University Research</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxQblRNcjZGVElrVXp3MnFoYk51N2lmeUtmMThBNzk4LWk1U2p0aDR4c2pBaTIwZTdBNy1zQWlyNGZZM09OOC1oelZxS2JtZ1Q3QktBd2JsbHRORnZWMWJkTEM4QS1vOFJxRnVlU2VNNVQzUmszX241X0RhazkyOURDR1ZfVnZocWdmV1hhSmVUZWhqY1VtcjhWeUh4ejVTWHIxV1JKOG1LZVdiRjVXQl9VbkZ4c28xRGlNOWFiV01mak00YlRpWm5XSHQ4LVNkdw?oc=5</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Thu, 25 Jul 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Technology-Enabled Disruption: Implications of AI, Big Data, and Remote Work - October 1-2, 2024 - Federal Reserve Bank of Atlanta</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxQakxOeUFvS0ZmQ0wzc0hSUGJSVHBGOVZvRVRYdFYzYjAtU3pfLUMtWjNuRTNQOU9NMjJKcDQxZFltTngwS3BnRU1JRGZ6YVRxOXhBcURzWGFpTWRqVzg5UXp6dzZVcVJjUXZia3AxR2owWHl5SEZFa2Q4SDBLOUFsVkx3TTZndFh3cUVrckp0bldpWjlYOHlJTGF4eThGeVlSRTdrRllKYmhLUGM?oc=5</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Tue, 01 Oct 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Unlocking Potential, Leading Transformation - FDA.gov</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMisAFBVV95cUxQV2l3bWpNTFk5ZDhSUXJBYzdkbm9xQTRZWlJSTmo1TTJ1ZGlFRklKY2s4bnpQOUtRQkw1ZmE1RnV1RDhGUmtUa25yalYtT1FPY0dRSVp1Y3hwV29LNXJ4SE5iMnFSODRWYlhlYnFqNnE0ZjREREZkYkJnVGNkeHdiMFp0REVLNks4NFF5Q1l6OGF0NWNBQWF3b3c0ZjlkRW5mOUNCUURjdWtJWDVqMjR3bg?oc=5</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Wed, 25 Sep 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence (AI) - Department of State</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTFBKZlFIVjVMRjMzeWMzYkIwMG9JVXFPd3JOdEdBLUE0bHVjYndEYVY4SUNBM2pKZ09PWmpQVEt1Zm9MNXZEN2E3aGlaSThZblFhVWJsRlhxbW10QQ?oc=5</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Mon, 23 Sep 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>STEM – Science, Technology, Engineering and Mathematics - Ohio Department of Education</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMihwFBVV95cUxOSmVNV21GdTljdDhYZV9FRU5HUnF2dVlfLTQyeWRMdmtjN2tOQUtIekM4a0hNZm4xWFRjM1I4T3ZDSlBidGpYcmg0dUFQUE85NUR2OWRxdFRqZnY3dkNXQ1NhMUdpSE5wVnVwajlaTExlLUhobTRkUWV1VWttNTVva2c0WVc0THc?oc=5</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Thu, 08 Aug 2024 07:00:00 GMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Nissan trialing cool paint technology - 日産自動車ニュースルーム</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMihgFBVV95cUxNc05lZjk1eXJDdFZ4YnRNRnItcXRwc3ozZHByVE82Y1YyY0dwUFhocXNUVVlGbG5HTERfNjJuQ1lHNVEwSXc5bE5pSk40ZmR3enY1M0dhanVKcHFlZzI3MnBHblQtREFVX05CSEtiOUsxOWlhNERJajZUcUY5aHU5bFlHazJFdw?oc=5</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Tue, 06 Aug 2024 07:00:00 GMT</t>
         </is>
       </c>
     </row>
